--- a/docs/StructureDefinition-CareConnect-DiagnosticReport-1.xlsx
+++ b/docs/StructureDefinition-CareConnect-DiagnosticReport-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2951" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2951" uniqueCount="448">
   <si>
     <t>Path</t>
   </si>
@@ -661,6 +661,9 @@
   </si>
   <si>
     <t>preferred</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
   </si>
   <si>
     <t>OBR-24</t>
@@ -4012,7 +4015,7 @@
       </c>
       <c r="X22" s="2"/>
       <c r="Y22" t="s" s="2">
-        <v>43</v>
+        <v>207</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>43</v>
@@ -4048,18 +4051,18 @@
         <v>43</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4168,7 +4171,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4279,7 +4282,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4302,19 +4305,19 @@
         <v>54</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>43</v>
@@ -4351,7 +4354,7 @@
         <v>43</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB25" s="2"/>
       <c r="AC25" t="s" s="2">
@@ -4361,7 +4364,7 @@
         <v>128</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -4379,10 +4382,10 @@
         <v>43</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>43</v>
@@ -4390,10 +4393,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>43</v>
@@ -4415,19 +4418,19 @@
         <v>54</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>43</v>
@@ -4476,7 +4479,7 @@
         <v>43</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4494,10 +4497,10 @@
         <v>43</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>43</v>
@@ -4505,7 +4508,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4614,7 +4617,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4640,10 +4643,10 @@
         <v>99</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4723,10 +4726,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>43</v>
@@ -4748,13 +4751,13 @@
         <v>43</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4834,7 +4837,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4860,23 +4863,23 @@
         <v>66</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>43</v>
@@ -4918,7 +4921,7 @@
         <v>43</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4936,10 +4939,10 @@
         <v>43</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>43</v>
@@ -4947,7 +4950,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4973,13 +4976,13 @@
         <v>119</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5029,7 +5032,7 @@
         <v>43</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -5047,10 +5050,10 @@
         <v>43</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>43</v>
@@ -5058,7 +5061,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5084,14 +5087,14 @@
         <v>72</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>43</v>
@@ -5140,7 +5143,7 @@
         <v>43</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -5158,10 +5161,10 @@
         <v>43</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>43</v>
@@ -5169,7 +5172,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5195,14 +5198,14 @@
         <v>119</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>43</v>
@@ -5251,7 +5254,7 @@
         <v>43</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -5269,10 +5272,10 @@
         <v>43</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>43</v>
@@ -5280,7 +5283,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5303,19 +5306,19 @@
         <v>54</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>43</v>
@@ -5364,7 +5367,7 @@
         <v>43</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5382,10 +5385,10 @@
         <v>43</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>43</v>
@@ -5393,7 +5396,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5419,16 +5422,16 @@
         <v>119</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>43</v>
@@ -5477,7 +5480,7 @@
         <v>43</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5495,10 +5498,10 @@
         <v>43</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>43</v>
@@ -5506,11 +5509,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5532,10 +5535,10 @@
         <v>141</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5565,10 +5568,10 @@
         <v>206</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>43</v>
@@ -5586,7 +5589,7 @@
         <v>43</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>53</v>
@@ -5601,21 +5604,21 @@
         <v>43</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5724,7 +5727,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5835,7 +5838,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5858,19 +5861,19 @@
         <v>54</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>43</v>
@@ -5907,7 +5910,7 @@
         <v>43</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB39" s="2"/>
       <c r="AC39" t="s" s="2">
@@ -5917,7 +5920,7 @@
         <v>128</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5935,10 +5938,10 @@
         <v>43</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>43</v>
@@ -5946,10 +5949,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>43</v>
@@ -5971,19 +5974,19 @@
         <v>54</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>43</v>
@@ -6011,10 +6014,10 @@
         <v>76</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>43</v>
@@ -6032,7 +6035,7 @@
         <v>43</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -6050,10 +6053,10 @@
         <v>43</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>43</v>
@@ -6061,7 +6064,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6170,7 +6173,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6196,10 +6199,10 @@
         <v>99</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6279,10 +6282,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C43" t="s" s="2">
         <v>43</v>
@@ -6304,13 +6307,13 @@
         <v>43</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6390,7 +6393,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6416,23 +6419,23 @@
         <v>66</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="R44" t="s" s="2">
         <v>43</v>
@@ -6474,7 +6477,7 @@
         <v>43</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6492,10 +6495,10 @@
         <v>43</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>43</v>
@@ -6503,7 +6506,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6529,13 +6532,13 @@
         <v>119</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6585,7 +6588,7 @@
         <v>43</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6603,10 +6606,10 @@
         <v>43</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>43</v>
@@ -6614,7 +6617,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6640,14 +6643,14 @@
         <v>72</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>43</v>
@@ -6696,7 +6699,7 @@
         <v>43</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6714,10 +6717,10 @@
         <v>43</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>43</v>
@@ -6725,7 +6728,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6751,14 +6754,14 @@
         <v>119</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>43</v>
@@ -6807,7 +6810,7 @@
         <v>43</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6825,10 +6828,10 @@
         <v>43</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>43</v>
@@ -6836,7 +6839,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6859,19 +6862,19 @@
         <v>54</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>43</v>
@@ -6920,7 +6923,7 @@
         <v>43</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6938,10 +6941,10 @@
         <v>43</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>43</v>
@@ -6949,7 +6952,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6975,16 +6978,16 @@
         <v>119</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>43</v>
@@ -7033,7 +7036,7 @@
         <v>43</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -7051,10 +7054,10 @@
         <v>43</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>43</v>
@@ -7062,11 +7065,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7085,17 +7088,17 @@
         <v>54</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>43</v>
@@ -7144,7 +7147,7 @@
         <v>43</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -7159,25 +7162,25 @@
         <v>43</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7196,19 +7199,19 @@
         <v>54</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>43</v>
@@ -7257,7 +7260,7 @@
         <v>43</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -7272,25 +7275,25 @@
         <v>43</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7309,19 +7312,19 @@
         <v>54</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>43</v>
@@ -7370,7 +7373,7 @@
         <v>43</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7385,25 +7388,25 @@
         <v>43</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7422,19 +7425,19 @@
         <v>54</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>43</v>
@@ -7483,7 +7486,7 @@
         <v>43</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7501,22 +7504,22 @@
         <v>43</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7535,13 +7538,13 @@
         <v>54</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7592,7 +7595,7 @@
         <v>43</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7604,24 +7607,24 @@
         <v>43</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7730,7 +7733,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7841,11 +7844,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7870,7 +7873,7 @@
         <v>105</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>102</v>
@@ -7923,7 +7926,7 @@
         <v>43</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -7952,7 +7955,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7978,10 +7981,10 @@
         <v>141</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8008,13 +8011,13 @@
         <v>43</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>43</v>
@@ -8032,7 +8035,7 @@
         <v>43</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -8047,13 +8050,13 @@
         <v>43</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>43</v>
@@ -8061,7 +8064,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8084,19 +8087,19 @@
         <v>54</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>43</v>
@@ -8145,7 +8148,7 @@
         <v>43</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>53</v>
@@ -8160,13 +8163,13 @@
         <v>43</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>43</v>
@@ -8174,7 +8177,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8197,19 +8200,19 @@
         <v>43</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>43</v>
@@ -8258,7 +8261,7 @@
         <v>43</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8276,10 +8279,10 @@
         <v>43</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>43</v>
@@ -8287,11 +8290,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8310,17 +8313,17 @@
         <v>43</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>43</v>
@@ -8369,7 +8372,7 @@
         <v>43</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -8387,10 +8390,10 @@
         <v>43</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>43</v>
@@ -8398,7 +8401,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8421,16 +8424,16 @@
         <v>43</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8480,7 +8483,7 @@
         <v>43</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8501,7 +8504,7 @@
         <v>43</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>43</v>
@@ -8509,11 +8512,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8532,17 +8535,17 @@
         <v>54</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>43</v>
@@ -8591,7 +8594,7 @@
         <v>43</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8603,16 +8606,16 @@
         <v>43</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>43</v>
@@ -8620,7 +8623,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8729,7 +8732,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8840,11 +8843,11 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -8869,7 +8872,7 @@
         <v>105</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>102</v>
@@ -8922,7 +8925,7 @@
         <v>43</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
@@ -8951,7 +8954,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8977,16 +8980,16 @@
         <v>119</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>43</v>
@@ -9035,7 +9038,7 @@
         <v>43</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
@@ -9056,7 +9059,7 @@
         <v>43</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>43</v>
@@ -9064,7 +9067,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9087,13 +9090,13 @@
         <v>54</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9144,7 +9147,7 @@
         <v>43</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>53</v>
@@ -9165,7 +9168,7 @@
         <v>43</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>43</v>
@@ -9173,11 +9176,11 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9199,14 +9202,14 @@
         <v>119</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>43</v>
@@ -9255,7 +9258,7 @@
         <v>43</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -9273,10 +9276,10 @@
         <v>43</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>43</v>
@@ -9284,7 +9287,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9310,10 +9313,10 @@
         <v>141</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9343,10 +9346,10 @@
         <v>206</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>43</v>
@@ -9364,7 +9367,7 @@
         <v>43</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -9382,10 +9385,10 @@
         <v>43</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>43</v>
@@ -9393,7 +9396,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9502,7 +9505,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9613,7 +9616,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9636,19 +9639,19 @@
         <v>54</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>43</v>
@@ -9685,7 +9688,7 @@
         <v>43</v>
       </c>
       <c r="AA73" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB73" s="2"/>
       <c r="AC73" t="s" s="2">
@@ -9695,7 +9698,7 @@
         <v>128</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
@@ -9713,10 +9716,10 @@
         <v>43</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>43</v>
@@ -9724,10 +9727,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C74" t="s" s="2">
         <v>43</v>
@@ -9749,19 +9752,19 @@
         <v>54</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>43</v>
@@ -9789,10 +9792,10 @@
         <v>76</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>43</v>
@@ -9810,7 +9813,7 @@
         <v>43</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
@@ -9828,10 +9831,10 @@
         <v>43</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>43</v>
@@ -9839,7 +9842,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9948,7 +9951,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9974,10 +9977,10 @@
         <v>99</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10057,10 +10060,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C77" t="s" s="2">
         <v>43</v>
@@ -10082,13 +10085,13 @@
         <v>43</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10168,7 +10171,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10194,23 +10197,23 @@
         <v>66</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="R78" t="s" s="2">
         <v>43</v>
@@ -10252,7 +10255,7 @@
         <v>43</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
@@ -10270,10 +10273,10 @@
         <v>43</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>43</v>
@@ -10281,7 +10284,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10307,13 +10310,13 @@
         <v>119</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -10363,7 +10366,7 @@
         <v>43</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
@@ -10381,10 +10384,10 @@
         <v>43</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>43</v>
@@ -10392,7 +10395,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10418,14 +10421,14 @@
         <v>72</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>43</v>
@@ -10474,7 +10477,7 @@
         <v>43</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
@@ -10492,10 +10495,10 @@
         <v>43</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>43</v>
@@ -10503,7 +10506,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10529,14 +10532,14 @@
         <v>119</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>43</v>
@@ -10585,7 +10588,7 @@
         <v>43</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
@@ -10603,10 +10606,10 @@
         <v>43</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>43</v>
@@ -10614,7 +10617,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10637,19 +10640,19 @@
         <v>54</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>43</v>
@@ -10698,7 +10701,7 @@
         <v>43</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -10716,10 +10719,10 @@
         <v>43</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>43</v>
@@ -10727,7 +10730,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10753,16 +10756,16 @@
         <v>119</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>43</v>
@@ -10811,7 +10814,7 @@
         <v>43</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
@@ -10829,10 +10832,10 @@
         <v>43</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>43</v>
@@ -10840,7 +10843,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10863,19 +10866,19 @@
         <v>43</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>43</v>
@@ -10924,7 +10927,7 @@
         <v>43</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
@@ -10942,10 +10945,10 @@
         <v>43</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>43</v>
